--- a/FONSOFT/Formularios BECAS TICS FONSOFT 2016/1 - Becas TICs 2016 - Formulario A .xlsx
+++ b/FONSOFT/Formularios BECAS TICS FONSOFT 2016/1 - Becas TICs 2016 - Formulario A .xlsx
@@ -242,7 +242,7 @@
     <t>IDEA PROYECTO</t>
   </si>
   <si>
-    <t>Sistema inteligente de instrumentacion para sistemas embebidos.</t>
+    <t>Plataforma de instrumentacion programable para sistemas embebidos</t>
   </si>
 </sst>
 </file>
@@ -733,6 +733,170 @@
       <alignment horizontal="center"/>
       <protection hidden="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
@@ -745,172 +909,8 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection hidden="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
       <protection hidden="1"/>
     </xf>
   </cellXfs>
@@ -1419,8 +1419,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I93"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" zoomScaleSheetLayoutView="110" workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B42" zoomScaleNormal="100" zoomScaleSheetLayoutView="110" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11:H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1449,37 +1449,37 @@
     </row>
     <row r="5" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="6" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A6" s="40" t="s">
+      <c r="A6" s="60" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="40"/>
-      <c r="C6" s="40"/>
-      <c r="D6" s="40"/>
-      <c r="E6" s="40"/>
-      <c r="F6" s="40"/>
-      <c r="G6" s="40"/>
-      <c r="H6" s="40"/>
+      <c r="B6" s="60"/>
+      <c r="C6" s="60"/>
+      <c r="D6" s="60"/>
+      <c r="E6" s="60"/>
+      <c r="F6" s="60"/>
+      <c r="G6" s="60"/>
+      <c r="H6" s="60"/>
       <c r="I6" s="3"/>
     </row>
     <row r="7" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="41" t="s">
+      <c r="A7" s="61" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="41"/>
-      <c r="C7" s="41"/>
-      <c r="D7" s="41"/>
-      <c r="E7" s="41"/>
-      <c r="F7" s="41"/>
-      <c r="G7" s="41"/>
-      <c r="H7" s="41"/>
+      <c r="B7" s="61"/>
+      <c r="C7" s="61"/>
+      <c r="D7" s="61"/>
+      <c r="E7" s="61"/>
+      <c r="F7" s="61"/>
+      <c r="G7" s="61"/>
+      <c r="H7" s="61"/>
       <c r="I7" s="4"/>
     </row>
     <row r="8" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D8" s="75" t="s">
+      <c r="D8" s="78" t="s">
         <v>57</v>
       </c>
-      <c r="E8" s="75"/>
-      <c r="F8" s="75"/>
+      <c r="E8" s="78"/>
+      <c r="F8" s="78"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
@@ -1493,27 +1493,27 @@
     </row>
     <row r="10" spans="1:9" ht="5.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="11" spans="1:9" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="46" t="s">
+      <c r="B11" s="65" t="s">
         <v>58</v>
       </c>
-      <c r="C11" s="47"/>
-      <c r="D11" s="47"/>
-      <c r="E11" s="47"/>
-      <c r="F11" s="47"/>
-      <c r="G11" s="47"/>
-      <c r="H11" s="48"/>
+      <c r="C11" s="66"/>
+      <c r="D11" s="66"/>
+      <c r="E11" s="66"/>
+      <c r="F11" s="66"/>
+      <c r="G11" s="66"/>
+      <c r="H11" s="67"/>
     </row>
     <row r="12" spans="1:9" ht="3" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="13" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="37" t="s">
+      <c r="B13" s="47" t="s">
         <v>19</v>
       </c>
-      <c r="C13" s="37"/>
-      <c r="D13" s="37"/>
-      <c r="E13" s="37"/>
-      <c r="F13" s="37"/>
-      <c r="G13" s="37"/>
-      <c r="H13" s="37"/>
+      <c r="C13" s="47"/>
+      <c r="D13" s="47"/>
+      <c r="E13" s="47"/>
+      <c r="F13" s="47"/>
+      <c r="G13" s="47"/>
+      <c r="H13" s="47"/>
       <c r="I13" s="7"/>
     </row>
     <row r="14" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1538,13 +1538,13 @@
     </row>
     <row r="19" spans="1:8" ht="4.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="20" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B20" s="49"/>
-      <c r="C20" s="50"/>
-      <c r="D20" s="50"/>
-      <c r="E20" s="50"/>
-      <c r="F20" s="50"/>
-      <c r="G20" s="50"/>
-      <c r="H20" s="51"/>
+      <c r="B20" s="68"/>
+      <c r="C20" s="69"/>
+      <c r="D20" s="69"/>
+      <c r="E20" s="69"/>
+      <c r="F20" s="69"/>
+      <c r="G20" s="69"/>
+      <c r="H20" s="70"/>
     </row>
     <row r="21" spans="1:8" ht="3.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="22" spans="1:8" ht="6.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -1554,14 +1554,14 @@
       <c r="B23" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="C23" s="52"/>
-      <c r="D23" s="53"/>
-      <c r="E23" s="54" t="s">
+      <c r="C23" s="71"/>
+      <c r="D23" s="72"/>
+      <c r="E23" s="73" t="s">
         <v>21</v>
       </c>
-      <c r="F23" s="55"/>
-      <c r="G23" s="38"/>
-      <c r="H23" s="39"/>
+      <c r="F23" s="74"/>
+      <c r="G23" s="58"/>
+      <c r="H23" s="59"/>
     </row>
     <row r="24" spans="1:8" ht="6.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="16"/>
@@ -1590,27 +1590,27 @@
       <c r="D26" s="6"/>
     </row>
     <row r="27" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="37" t="s">
+      <c r="B27" s="47" t="s">
         <v>22</v>
       </c>
-      <c r="C27" s="37"/>
-      <c r="D27" s="37"/>
-      <c r="E27" s="37"/>
-      <c r="F27" s="37"/>
-      <c r="G27" s="37"/>
-      <c r="H27" s="37"/>
+      <c r="C27" s="47"/>
+      <c r="D27" s="47"/>
+      <c r="E27" s="47"/>
+      <c r="F27" s="47"/>
+      <c r="G27" s="47"/>
+      <c r="H27" s="47"/>
     </row>
     <row r="28" spans="1:8" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B29" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="C29" s="34"/>
-      <c r="D29" s="35"/>
-      <c r="E29" s="35"/>
-      <c r="F29" s="35"/>
-      <c r="G29" s="35"/>
-      <c r="H29" s="36"/>
+      <c r="C29" s="75"/>
+      <c r="D29" s="76"/>
+      <c r="E29" s="76"/>
+      <c r="F29" s="76"/>
+      <c r="G29" s="76"/>
+      <c r="H29" s="77"/>
     </row>
     <row r="30" spans="1:8" ht="6.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" s="16"/>
@@ -1625,10 +1625,10 @@
       <c r="B31" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="C31" s="34"/>
-      <c r="D31" s="35"/>
-      <c r="E31" s="35"/>
-      <c r="F31" s="36"/>
+      <c r="C31" s="75"/>
+      <c r="D31" s="76"/>
+      <c r="E31" s="76"/>
+      <c r="F31" s="77"/>
       <c r="G31" s="19" t="s">
         <v>10</v>
       </c>
@@ -1647,10 +1647,10 @@
       <c r="B33" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="C33" s="34"/>
-      <c r="D33" s="35"/>
-      <c r="E33" s="35"/>
-      <c r="F33" s="36"/>
+      <c r="C33" s="75"/>
+      <c r="D33" s="76"/>
+      <c r="E33" s="76"/>
+      <c r="F33" s="77"/>
       <c r="G33" s="16"/>
       <c r="H33" s="16"/>
     </row>
@@ -1667,10 +1667,10 @@
       <c r="B35" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="C35" s="34"/>
-      <c r="D35" s="35"/>
-      <c r="E35" s="35"/>
-      <c r="F35" s="36"/>
+      <c r="C35" s="75"/>
+      <c r="D35" s="76"/>
+      <c r="E35" s="76"/>
+      <c r="F35" s="77"/>
       <c r="G35" s="16"/>
       <c r="H35" s="16"/>
     </row>
@@ -1687,10 +1687,10 @@
       <c r="B37" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="C37" s="34"/>
-      <c r="D37" s="35"/>
-      <c r="E37" s="35"/>
-      <c r="F37" s="36"/>
+      <c r="C37" s="75"/>
+      <c r="D37" s="76"/>
+      <c r="E37" s="76"/>
+      <c r="F37" s="77"/>
       <c r="G37" s="16"/>
       <c r="H37" s="16"/>
     </row>
@@ -1706,24 +1706,24 @@
       <c r="D39" s="6"/>
     </row>
     <row r="40" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="37" t="s">
+      <c r="B40" s="47" t="s">
         <v>25</v>
       </c>
-      <c r="C40" s="37"/>
-      <c r="D40" s="37"/>
-      <c r="E40" s="37"/>
-      <c r="F40" s="37"/>
-      <c r="G40" s="37"/>
-      <c r="H40" s="37"/>
+      <c r="C40" s="47"/>
+      <c r="D40" s="47"/>
+      <c r="E40" s="47"/>
+      <c r="F40" s="47"/>
+      <c r="G40" s="47"/>
+      <c r="H40" s="47"/>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B41" s="43"/>
-      <c r="C41" s="44"/>
-      <c r="D41" s="44"/>
-      <c r="E41" s="44"/>
-      <c r="F41" s="44"/>
-      <c r="G41" s="44"/>
-      <c r="H41" s="45"/>
+      <c r="B41" s="62"/>
+      <c r="C41" s="63"/>
+      <c r="D41" s="63"/>
+      <c r="E41" s="63"/>
+      <c r="F41" s="63"/>
+      <c r="G41" s="63"/>
+      <c r="H41" s="64"/>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="11" t="s">
@@ -1736,114 +1736,114 @@
       <c r="D43" s="6"/>
     </row>
     <row r="44" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B44" s="37" t="s">
+      <c r="B44" s="47" t="s">
         <v>51</v>
       </c>
-      <c r="C44" s="37"/>
-      <c r="D44" s="37"/>
-      <c r="E44" s="37"/>
-      <c r="F44" s="37"/>
-      <c r="G44" s="37"/>
-      <c r="H44" s="37"/>
+      <c r="C44" s="47"/>
+      <c r="D44" s="47"/>
+      <c r="E44" s="47"/>
+      <c r="F44" s="47"/>
+      <c r="G44" s="47"/>
+      <c r="H44" s="47"/>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" s="27"/>
-      <c r="B45" s="42" t="s">
+      <c r="B45" s="38" t="s">
         <v>27</v>
       </c>
-      <c r="C45" s="42"/>
-      <c r="D45" s="42"/>
-      <c r="E45" s="42"/>
+      <c r="C45" s="38"/>
+      <c r="D45" s="38"/>
+      <c r="E45" s="38"/>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" s="27"/>
-      <c r="B46" s="42" t="s">
+      <c r="B46" s="38" t="s">
         <v>28</v>
       </c>
-      <c r="C46" s="42"/>
-      <c r="D46" s="42"/>
-      <c r="E46" s="42"/>
+      <c r="C46" s="38"/>
+      <c r="D46" s="38"/>
+      <c r="E46" s="38"/>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="27"/>
-      <c r="B47" s="42" t="s">
+      <c r="B47" s="38" t="s">
         <v>29</v>
       </c>
-      <c r="C47" s="42"/>
-      <c r="D47" s="42"/>
-      <c r="E47" s="42"/>
+      <c r="C47" s="38"/>
+      <c r="D47" s="38"/>
+      <c r="E47" s="38"/>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" s="27"/>
-      <c r="B48" s="42" t="s">
+      <c r="B48" s="38" t="s">
         <v>30</v>
       </c>
-      <c r="C48" s="42"/>
-      <c r="D48" s="42"/>
-      <c r="E48" s="42"/>
+      <c r="C48" s="38"/>
+      <c r="D48" s="38"/>
+      <c r="E48" s="38"/>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" s="27"/>
-      <c r="B49" s="42" t="s">
+      <c r="B49" s="38" t="s">
         <v>31</v>
       </c>
-      <c r="C49" s="42"/>
-      <c r="D49" s="42"/>
-      <c r="E49" s="42"/>
+      <c r="C49" s="38"/>
+      <c r="D49" s="38"/>
+      <c r="E49" s="38"/>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" s="27"/>
-      <c r="B50" s="42" t="s">
+      <c r="B50" s="38" t="s">
         <v>32</v>
       </c>
-      <c r="C50" s="42"/>
-      <c r="D50" s="42"/>
-      <c r="E50" s="42"/>
+      <c r="C50" s="38"/>
+      <c r="D50" s="38"/>
+      <c r="E50" s="38"/>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" s="27"/>
-      <c r="B51" s="42" t="s">
+      <c r="B51" s="38" t="s">
         <v>33</v>
       </c>
-      <c r="C51" s="42"/>
-      <c r="D51" s="42"/>
-      <c r="E51" s="42"/>
+      <c r="C51" s="38"/>
+      <c r="D51" s="38"/>
+      <c r="E51" s="38"/>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" s="27"/>
-      <c r="B52" s="42" t="s">
+      <c r="B52" s="38" t="s">
         <v>34</v>
       </c>
-      <c r="C52" s="42"/>
-      <c r="D52" s="42"/>
-      <c r="E52" s="42"/>
+      <c r="C52" s="38"/>
+      <c r="D52" s="38"/>
+      <c r="E52" s="38"/>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" s="27"/>
-      <c r="B53" s="42" t="s">
+      <c r="B53" s="38" t="s">
         <v>35</v>
       </c>
-      <c r="C53" s="42"/>
-      <c r="D53" s="42"/>
-      <c r="E53" s="42"/>
+      <c r="C53" s="38"/>
+      <c r="D53" s="38"/>
+      <c r="E53" s="38"/>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" s="27"/>
-      <c r="B54" s="42" t="s">
+      <c r="B54" s="38" t="s">
         <v>36</v>
       </c>
-      <c r="C54" s="42"/>
-      <c r="D54" s="42"/>
-      <c r="E54" s="42"/>
+      <c r="C54" s="38"/>
+      <c r="D54" s="38"/>
+      <c r="E54" s="38"/>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" s="27"/>
-      <c r="B55" s="42" t="s">
+      <c r="B55" s="38" t="s">
         <v>37</v>
       </c>
-      <c r="C55" s="42"/>
-      <c r="D55" s="42"/>
-      <c r="E55" s="42"/>
+      <c r="C55" s="38"/>
+      <c r="D55" s="38"/>
+      <c r="E55" s="38"/>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" s="27"/>
@@ -1856,25 +1856,25 @@
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" s="27"/>
-      <c r="B57" s="42" t="s">
+      <c r="B57" s="38" t="s">
         <v>38</v>
       </c>
-      <c r="C57" s="42"/>
-      <c r="D57" s="42"/>
-      <c r="E57" s="42"/>
+      <c r="C57" s="38"/>
+      <c r="D57" s="38"/>
+      <c r="E57" s="38"/>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B58" s="60"/>
-      <c r="C58" s="60"/>
-      <c r="D58" s="60"/>
-      <c r="E58" s="60"/>
-      <c r="F58" s="60"/>
+      <c r="B58" s="57"/>
+      <c r="C58" s="57"/>
+      <c r="D58" s="57"/>
+      <c r="E58" s="57"/>
+      <c r="F58" s="57"/>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B59" s="58"/>
-      <c r="C59" s="58"/>
-      <c r="D59" s="58"/>
-      <c r="E59" s="58"/>
+      <c r="B59" s="56"/>
+      <c r="C59" s="56"/>
+      <c r="D59" s="56"/>
+      <c r="E59" s="56"/>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" s="11" t="s">
@@ -1888,24 +1888,24 @@
       <c r="E60" s="6"/>
     </row>
     <row r="61" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B61" s="37" t="s">
+      <c r="B61" s="47" t="s">
         <v>40</v>
       </c>
-      <c r="C61" s="37"/>
-      <c r="D61" s="37"/>
-      <c r="E61" s="37"/>
-      <c r="F61" s="37"/>
-      <c r="G61" s="37"/>
-      <c r="H61" s="37"/>
+      <c r="C61" s="47"/>
+      <c r="D61" s="47"/>
+      <c r="E61" s="47"/>
+      <c r="F61" s="47"/>
+      <c r="G61" s="47"/>
+      <c r="H61" s="47"/>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B62" s="59" t="s">
+      <c r="B62" s="48" t="s">
         <v>55</v>
       </c>
-      <c r="C62" s="59"/>
-      <c r="D62" s="59"/>
-      <c r="E62" s="59"/>
-      <c r="F62" s="59"/>
+      <c r="C62" s="48"/>
+      <c r="D62" s="48"/>
+      <c r="E62" s="48"/>
+      <c r="F62" s="48"/>
     </row>
     <row r="63" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B63" s="22"/>
@@ -1914,47 +1914,47 @@
       <c r="E63" s="22"/>
     </row>
     <row r="64" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C64" s="56" t="s">
+      <c r="C64" s="39" t="s">
         <v>43</v>
       </c>
-      <c r="D64" s="57"/>
-      <c r="E64" s="56" t="s">
+      <c r="D64" s="40"/>
+      <c r="E64" s="39" t="s">
         <v>44</v>
       </c>
-      <c r="F64" s="57"/>
+      <c r="F64" s="40"/>
       <c r="G64"/>
     </row>
     <row r="65" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B65" s="24" t="s">
         <v>41</v>
       </c>
-      <c r="C65" s="64"/>
-      <c r="D65" s="65"/>
-      <c r="E65" s="64"/>
-      <c r="F65" s="65"/>
+      <c r="C65" s="34"/>
+      <c r="D65" s="35"/>
+      <c r="E65" s="34"/>
+      <c r="F65" s="35"/>
       <c r="G65"/>
     </row>
     <row r="66" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B66" s="23" t="s">
         <v>42</v>
       </c>
-      <c r="C66" s="66"/>
-      <c r="D66" s="67"/>
-      <c r="E66" s="66"/>
-      <c r="F66" s="67"/>
+      <c r="C66" s="36"/>
+      <c r="D66" s="37"/>
+      <c r="E66" s="36"/>
+      <c r="F66" s="37"/>
       <c r="G66"/>
     </row>
     <row r="67" spans="2:7" x14ac:dyDescent="0.25">
       <c r="G67"/>
     </row>
     <row r="68" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B68" s="59" t="s">
+      <c r="B68" s="48" t="s">
         <v>54</v>
       </c>
-      <c r="C68" s="59"/>
-      <c r="D68" s="59"/>
-      <c r="E68" s="59"/>
-      <c r="F68" s="59"/>
+      <c r="C68" s="48"/>
+      <c r="D68" s="48"/>
+      <c r="E68" s="48"/>
+      <c r="F68" s="48"/>
       <c r="G68"/>
     </row>
     <row r="69" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1965,74 +1965,74 @@
       <c r="G69"/>
     </row>
     <row r="70" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C70" s="56" t="s">
+      <c r="C70" s="39" t="s">
         <v>45</v>
       </c>
-      <c r="D70" s="57"/>
-      <c r="E70" s="56" t="s">
+      <c r="D70" s="40"/>
+      <c r="E70" s="39" t="s">
         <v>44</v>
       </c>
-      <c r="F70" s="57"/>
+      <c r="F70" s="40"/>
       <c r="G70"/>
     </row>
     <row r="71" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B71" s="24" t="s">
         <v>41</v>
       </c>
-      <c r="C71" s="64"/>
-      <c r="D71" s="65"/>
-      <c r="E71" s="64"/>
-      <c r="F71" s="65"/>
+      <c r="C71" s="34"/>
+      <c r="D71" s="35"/>
+      <c r="E71" s="34"/>
+      <c r="F71" s="35"/>
       <c r="G71"/>
     </row>
     <row r="72" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B72" s="23" t="s">
         <v>42</v>
       </c>
-      <c r="C72" s="66"/>
-      <c r="D72" s="67"/>
-      <c r="E72" s="66"/>
-      <c r="F72" s="67"/>
+      <c r="C72" s="36"/>
+      <c r="D72" s="37"/>
+      <c r="E72" s="36"/>
+      <c r="F72" s="37"/>
       <c r="G72"/>
     </row>
     <row r="73" spans="2:7" x14ac:dyDescent="0.25">
       <c r="G73"/>
     </row>
     <row r="74" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B74" s="59" t="s">
+      <c r="B74" s="48" t="s">
         <v>52</v>
       </c>
-      <c r="C74" s="59"/>
-      <c r="D74" s="59"/>
-      <c r="E74" s="59"/>
-      <c r="F74" s="59"/>
+      <c r="C74" s="48"/>
+      <c r="D74" s="48"/>
+      <c r="E74" s="48"/>
+      <c r="F74" s="48"/>
     </row>
     <row r="75" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="76" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C76" s="56" t="s">
+      <c r="C76" s="39" t="s">
         <v>45</v>
       </c>
-      <c r="D76" s="57"/>
-      <c r="E76" s="56" t="s">
+      <c r="D76" s="40"/>
+      <c r="E76" s="39" t="s">
         <v>44</v>
       </c>
-      <c r="F76" s="57"/>
+      <c r="F76" s="40"/>
       <c r="G76" s="28"/>
     </row>
     <row r="77" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B77" s="24" t="s">
         <v>41</v>
       </c>
-      <c r="C77" s="76">
+      <c r="C77" s="41">
         <f>+C65+C71</f>
         <v>0</v>
       </c>
-      <c r="D77" s="77"/>
-      <c r="E77" s="76">
+      <c r="D77" s="42"/>
+      <c r="E77" s="41">
         <f>+E65+E71</f>
         <v>0</v>
       </c>
-      <c r="F77" s="78"/>
+      <c r="F77" s="43"/>
       <c r="G77" s="31" t="str">
         <f>IFERROR(E77*100/C77,"")</f>
         <v/>
@@ -2042,16 +2042,16 @@
       <c r="B78" s="23" t="s">
         <v>42</v>
       </c>
-      <c r="C78" s="72">
+      <c r="C78" s="53">
         <f>+C66+C72</f>
         <v>0</v>
       </c>
-      <c r="D78" s="73"/>
-      <c r="E78" s="72">
+      <c r="D78" s="54"/>
+      <c r="E78" s="53">
         <f>+E66</f>
         <v>0</v>
       </c>
-      <c r="F78" s="74"/>
+      <c r="F78" s="55"/>
       <c r="G78" s="31" t="str">
         <f>IFERROR(E78*100/C78,"")</f>
         <v/>
@@ -2074,24 +2074,24 @@
       </c>
     </row>
     <row r="81" spans="1:8" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B81" s="68" t="s">
+      <c r="B81" s="49" t="s">
         <v>47</v>
       </c>
-      <c r="C81" s="68"/>
-      <c r="D81" s="68"/>
-      <c r="E81" s="68"/>
-      <c r="F81" s="68"/>
-      <c r="G81" s="68"/>
-      <c r="H81" s="68"/>
+      <c r="C81" s="49"/>
+      <c r="D81" s="49"/>
+      <c r="E81" s="49"/>
+      <c r="F81" s="49"/>
+      <c r="G81" s="49"/>
+      <c r="H81" s="49"/>
     </row>
     <row r="83" spans="1:8" ht="75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B83" s="69"/>
-      <c r="C83" s="70"/>
-      <c r="D83" s="70"/>
-      <c r="E83" s="70"/>
-      <c r="F83" s="70"/>
-      <c r="G83" s="70"/>
-      <c r="H83" s="71"/>
+      <c r="B83" s="50"/>
+      <c r="C83" s="51"/>
+      <c r="D83" s="51"/>
+      <c r="E83" s="51"/>
+      <c r="F83" s="51"/>
+      <c r="G83" s="51"/>
+      <c r="H83" s="52"/>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A85" s="11" t="s">
@@ -2105,24 +2105,24 @@
       <c r="E85" s="6"/>
     </row>
     <row r="86" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B86" s="37" t="s">
+      <c r="B86" s="47" t="s">
         <v>49</v>
       </c>
-      <c r="C86" s="37"/>
-      <c r="D86" s="37"/>
-      <c r="E86" s="37"/>
-      <c r="F86" s="37"/>
-      <c r="G86" s="37"/>
-      <c r="H86" s="37"/>
+      <c r="C86" s="47"/>
+      <c r="D86" s="47"/>
+      <c r="E86" s="47"/>
+      <c r="F86" s="47"/>
+      <c r="G86" s="47"/>
+      <c r="H86" s="47"/>
     </row>
     <row r="88" spans="1:8" s="21" customFormat="1" ht="107.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B88" s="61"/>
-      <c r="C88" s="62"/>
-      <c r="D88" s="62"/>
-      <c r="E88" s="62"/>
-      <c r="F88" s="62"/>
-      <c r="G88" s="62"/>
-      <c r="H88" s="63"/>
+      <c r="B88" s="44"/>
+      <c r="C88" s="45"/>
+      <c r="D88" s="45"/>
+      <c r="E88" s="45"/>
+      <c r="F88" s="45"/>
+      <c r="G88" s="45"/>
+      <c r="H88" s="46"/>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A90" s="11" t="s">
@@ -2136,64 +2136,36 @@
       <c r="E90" s="6"/>
     </row>
     <row r="91" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B91" s="37" t="s">
+      <c r="B91" s="47" t="s">
         <v>53</v>
       </c>
-      <c r="C91" s="37"/>
-      <c r="D91" s="37"/>
-      <c r="E91" s="37"/>
-      <c r="F91" s="37"/>
-      <c r="G91" s="37"/>
-      <c r="H91" s="37"/>
+      <c r="C91" s="47"/>
+      <c r="D91" s="47"/>
+      <c r="E91" s="47"/>
+      <c r="F91" s="47"/>
+      <c r="G91" s="47"/>
+      <c r="H91" s="47"/>
     </row>
     <row r="93" spans="1:8" s="21" customFormat="1" ht="105" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B93" s="61"/>
-      <c r="C93" s="62"/>
-      <c r="D93" s="62"/>
-      <c r="E93" s="62"/>
-      <c r="F93" s="62"/>
-      <c r="G93" s="62"/>
-      <c r="H93" s="63"/>
+      <c r="B93" s="44"/>
+      <c r="C93" s="45"/>
+      <c r="D93" s="45"/>
+      <c r="E93" s="45"/>
+      <c r="F93" s="45"/>
+      <c r="G93" s="45"/>
+      <c r="H93" s="46"/>
     </row>
   </sheetData>
   <sheetProtection password="B115" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="60">
-    <mergeCell ref="C65:D65"/>
-    <mergeCell ref="E65:F65"/>
-    <mergeCell ref="E66:F66"/>
-    <mergeCell ref="B48:E48"/>
-    <mergeCell ref="B49:E49"/>
-    <mergeCell ref="B50:E50"/>
-    <mergeCell ref="E64:F64"/>
-    <mergeCell ref="C66:D66"/>
-    <mergeCell ref="C76:D76"/>
-    <mergeCell ref="E76:F76"/>
-    <mergeCell ref="C77:D77"/>
-    <mergeCell ref="E77:F77"/>
-    <mergeCell ref="B88:H88"/>
-    <mergeCell ref="B91:H91"/>
-    <mergeCell ref="B93:H93"/>
-    <mergeCell ref="B68:F68"/>
-    <mergeCell ref="C70:D70"/>
-    <mergeCell ref="E70:F70"/>
-    <mergeCell ref="C71:D71"/>
-    <mergeCell ref="E71:F71"/>
-    <mergeCell ref="C72:D72"/>
-    <mergeCell ref="E72:F72"/>
-    <mergeCell ref="B86:H86"/>
-    <mergeCell ref="B81:H81"/>
-    <mergeCell ref="B83:H83"/>
-    <mergeCell ref="C78:D78"/>
-    <mergeCell ref="E78:F78"/>
-    <mergeCell ref="B74:F74"/>
-    <mergeCell ref="B51:E51"/>
-    <mergeCell ref="B52:E52"/>
-    <mergeCell ref="B53:E53"/>
-    <mergeCell ref="C64:D64"/>
-    <mergeCell ref="B54:E54"/>
-    <mergeCell ref="B55:E55"/>
-    <mergeCell ref="B57:E57"/>
-    <mergeCell ref="B59:E59"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="C29:H29"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="C37:F37"/>
+    <mergeCell ref="C35:F35"/>
+    <mergeCell ref="C33:F33"/>
+    <mergeCell ref="C31:F31"/>
+    <mergeCell ref="B27:H27"/>
     <mergeCell ref="B61:H61"/>
     <mergeCell ref="B62:F62"/>
     <mergeCell ref="B58:F58"/>
@@ -2210,14 +2182,42 @@
     <mergeCell ref="B13:H13"/>
     <mergeCell ref="B20:H20"/>
     <mergeCell ref="C23:D23"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="C29:H29"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="C37:F37"/>
-    <mergeCell ref="C35:F35"/>
-    <mergeCell ref="C33:F33"/>
-    <mergeCell ref="C31:F31"/>
-    <mergeCell ref="B27:H27"/>
+    <mergeCell ref="B91:H91"/>
+    <mergeCell ref="B93:H93"/>
+    <mergeCell ref="B68:F68"/>
+    <mergeCell ref="C70:D70"/>
+    <mergeCell ref="E70:F70"/>
+    <mergeCell ref="C71:D71"/>
+    <mergeCell ref="E71:F71"/>
+    <mergeCell ref="C72:D72"/>
+    <mergeCell ref="E72:F72"/>
+    <mergeCell ref="B86:H86"/>
+    <mergeCell ref="B81:H81"/>
+    <mergeCell ref="B83:H83"/>
+    <mergeCell ref="C78:D78"/>
+    <mergeCell ref="E78:F78"/>
+    <mergeCell ref="B74:F74"/>
+    <mergeCell ref="C76:D76"/>
+    <mergeCell ref="E76:F76"/>
+    <mergeCell ref="C77:D77"/>
+    <mergeCell ref="E77:F77"/>
+    <mergeCell ref="B88:H88"/>
+    <mergeCell ref="C65:D65"/>
+    <mergeCell ref="E65:F65"/>
+    <mergeCell ref="E66:F66"/>
+    <mergeCell ref="B48:E48"/>
+    <mergeCell ref="B49:E49"/>
+    <mergeCell ref="B50:E50"/>
+    <mergeCell ref="E64:F64"/>
+    <mergeCell ref="C66:D66"/>
+    <mergeCell ref="B51:E51"/>
+    <mergeCell ref="B52:E52"/>
+    <mergeCell ref="B53:E53"/>
+    <mergeCell ref="C64:D64"/>
+    <mergeCell ref="B54:E54"/>
+    <mergeCell ref="B55:E55"/>
+    <mergeCell ref="B57:E57"/>
+    <mergeCell ref="B59:E59"/>
   </mergeCells>
   <pageMargins left="1.3385826771653544" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
